--- a/Documentação/Planilhas/Partitions.xlsx
+++ b/Documentação/Planilhas/Partitions.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Partitions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="245">
   <si>
     <t>DATABASE</t>
   </si>
@@ -184,6 +182,573 @@
   </si>
   <si>
     <t>Vw Fact Purchase</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Vw Financiamento Pedido Aberto</t>
+  </si>
+  <si>
+    <t>Vw Inventory Supply</t>
+  </si>
+  <si>
+    <t>Fact Lista Casamento Loja</t>
+  </si>
+  <si>
+    <t>Fact Lista Casamento Loja Qt Listas Invalidas</t>
+  </si>
+  <si>
+    <t>Fact Lista Casamento Loja Qt Listas Validas</t>
+  </si>
+  <si>
+    <t>Fact Lista Casamento Produtos Comprados com Vale</t>
+  </si>
+  <si>
+    <t>Fact Lista Casamento Sige</t>
+  </si>
+  <si>
+    <t>Fact Lista Casamento Sige Qt Orders</t>
+  </si>
+  <si>
+    <t>Margin_Otimizado</t>
+  </si>
+  <si>
+    <t>Fact Fatdev</t>
+  </si>
+  <si>
+    <t>Fact Fatdev Não Rateado</t>
+  </si>
+  <si>
+    <t>Orders_Approved</t>
+  </si>
+  <si>
+    <t>Fact Approved</t>
+  </si>
+  <si>
+    <t>Fact Approved Distinct</t>
+  </si>
+  <si>
+    <t>Fact Approved Não Rateado</t>
+  </si>
+  <si>
+    <t>Fact Approved Produto</t>
+  </si>
+  <si>
+    <t>Vw Fact Approved Margem Presumida</t>
+  </si>
+  <si>
+    <t>Vw Fact Ordersweb</t>
+  </si>
+  <si>
+    <t>Orders_Margin</t>
+  </si>
+  <si>
+    <t>Fact Fatdev Distinct</t>
+  </si>
+  <si>
+    <t>Fact Fatdev Produto</t>
+  </si>
+  <si>
+    <t>Orders_Web</t>
+  </si>
+  <si>
+    <t>Fact Ordersweb</t>
+  </si>
+  <si>
+    <t>Fact Ordersweb Distinct</t>
+  </si>
+  <si>
+    <t>Fact Ordersweb Margem</t>
+  </si>
+  <si>
+    <t>Fact Ordersweb Não Rateado</t>
+  </si>
+  <si>
+    <t>Fact Ordersweb Produto</t>
+  </si>
+  <si>
+    <t>Fact Stock</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Purchase Full</t>
+  </si>
+  <si>
+    <t>Vw Fact Purchase Full</t>
+  </si>
+  <si>
+    <t>MIS_FINANCEIRO</t>
+  </si>
+  <si>
+    <t>Contas Receber</t>
+  </si>
+  <si>
+    <t>Vw Fact Contas Receber</t>
+  </si>
+  <si>
+    <t>Vw Fact Contas Receber Distinct</t>
+  </si>
+  <si>
+    <t>MIS_LOGISTICA</t>
+  </si>
+  <si>
+    <t>Pontualidade</t>
+  </si>
+  <si>
+    <t>Pontualidade por Itens</t>
+  </si>
+  <si>
+    <t>Pontualidade por Pedidos</t>
+  </si>
+  <si>
+    <t>MIS_MARKET_PLACE</t>
+  </si>
+  <si>
+    <t>Acompanhamento Importacao</t>
+  </si>
+  <si>
+    <t>Catalogo SKU</t>
+  </si>
+  <si>
+    <t>Fact Catalogo Sku</t>
+  </si>
+  <si>
+    <t>Comissionamento</t>
+  </si>
+  <si>
+    <t>Fact Comissionamento</t>
+  </si>
+  <si>
+    <t>Ruptura Vitrine</t>
+  </si>
+  <si>
+    <t>Ruptura Estoque Sige</t>
+  </si>
+  <si>
+    <t>Ruptura Vitrine Total</t>
+  </si>
+  <si>
+    <t>MIS_OLAP</t>
+  </si>
+  <si>
+    <t>CAP Departamento</t>
+  </si>
+  <si>
+    <t>Vw Fact Cap Depto</t>
+  </si>
+  <si>
+    <t>Cockpit Orcamento</t>
+  </si>
+  <si>
+    <t>Vw Fact Cockpit</t>
+  </si>
+  <si>
+    <t>Vw Fact Cockpit Meta</t>
+  </si>
+  <si>
+    <t>Despesa</t>
+  </si>
+  <si>
+    <t>Vw Fact Despesa</t>
+  </si>
+  <si>
+    <t>Devolucao</t>
+  </si>
+  <si>
+    <t>Vw Fact Devolucao</t>
+  </si>
+  <si>
+    <t>Funil Aprovacao</t>
+  </si>
+  <si>
+    <t>Gestao ICMS</t>
+  </si>
+  <si>
+    <t>Vw Fact Gestao Icms</t>
+  </si>
+  <si>
+    <t>Gestacao VPC</t>
+  </si>
+  <si>
+    <t>Vw Fact Vpc Consumido</t>
+  </si>
+  <si>
+    <t>Vw Fact Vpc Estoque Sige</t>
+  </si>
+  <si>
+    <t>Vw Fact Vpc Estoque Sige Antigo</t>
+  </si>
+  <si>
+    <t>Vw Fact Vpc Margin</t>
+  </si>
+  <si>
+    <t>Motivo Reprovacao</t>
+  </si>
+  <si>
+    <t>Orders Web</t>
+  </si>
+  <si>
+    <t>Pedidos</t>
+  </si>
+  <si>
+    <t>Pedidos Distintos</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Distinct Count</t>
+  </si>
+  <si>
+    <t>Fact Ordersweb Rateado n Pricing</t>
+  </si>
+  <si>
+    <t>Fact Ordersweb Rateado Pricing</t>
+  </si>
+  <si>
+    <t>Fact Preco Tabela</t>
+  </si>
+  <si>
+    <t>Fact Pricing Preco Robo</t>
+  </si>
+  <si>
+    <t>Fact Pricing Preco Venda</t>
+  </si>
+  <si>
+    <t>Fact Sieve Concorrencia</t>
+  </si>
+  <si>
+    <t>Fact Sieve Produtos</t>
+  </si>
+  <si>
+    <t>MIS_OPERACOES_LOSITICA</t>
+  </si>
+  <si>
+    <t>Fluxo Pedidos</t>
+  </si>
+  <si>
+    <t>Fact Fluxo Pedidos Caixa</t>
+  </si>
+  <si>
+    <t>Fact Fluxo Pedidos Entrada</t>
+  </si>
+  <si>
+    <t>Fact Fluxo Pedidos Saida</t>
+  </si>
+  <si>
+    <t>Volumetria</t>
+  </si>
+  <si>
+    <t>MIS_ORDERS_TODAY_MARKET_PLACE</t>
+  </si>
+  <si>
+    <t>Orders_Today</t>
+  </si>
+  <si>
+    <t>Fact Orders Today</t>
+  </si>
+  <si>
+    <t>Fact Orders Today Distinct</t>
+  </si>
+  <si>
+    <t>Fact Orders Today Não Rateado</t>
+  </si>
+  <si>
+    <t>Fact Orders Today Produto</t>
+  </si>
+  <si>
+    <t>MIS_PARTIU_VIAGENS</t>
+  </si>
+  <si>
+    <t>Partiu Viagens</t>
+  </si>
+  <si>
+    <t>MIS_PLANEJAMENTO_LOGISTICA</t>
+  </si>
+  <si>
+    <t>Competitividade Prazo</t>
+  </si>
+  <si>
+    <t>Frete</t>
+  </si>
+  <si>
+    <t>Medidas</t>
+  </si>
+  <si>
+    <t>Transportes</t>
+  </si>
+  <si>
+    <t>Transportes Count Entrega</t>
+  </si>
+  <si>
+    <t>Transportes Count Peças</t>
+  </si>
+  <si>
+    <t>Transportes Count Pedido</t>
+  </si>
+  <si>
+    <t>MIS_PRODUTOS</t>
+  </si>
+  <si>
+    <t>Produtos</t>
+  </si>
+  <si>
+    <t>MIS_RELACIONAMENTO</t>
+  </si>
+  <si>
+    <t>Contatos</t>
+  </si>
+  <si>
+    <t>Fact Contato</t>
+  </si>
+  <si>
+    <t>Fact Motivo Contato</t>
+  </si>
+  <si>
+    <t>Fact Qtde Pedidos Uniatend Orders</t>
+  </si>
+  <si>
+    <t>Fact Recontato</t>
+  </si>
+  <si>
+    <t>Fact Recontato Cliente Pedido</t>
+  </si>
+  <si>
+    <t>Fact Recontato Orders Distinct</t>
+  </si>
+  <si>
+    <t>Fact Recontato por Classificacao</t>
+  </si>
+  <si>
+    <t>Fact Tarefa sem Classificacao</t>
+  </si>
+  <si>
+    <t>Instancias</t>
+  </si>
+  <si>
+    <t>Fact Instancia</t>
+  </si>
+  <si>
+    <t>Fact Instancia Qt Instancia</t>
+  </si>
+  <si>
+    <t>TarefasN2</t>
+  </si>
+  <si>
+    <t>Fact Sac Tarefa n2</t>
+  </si>
+  <si>
+    <t>Fact Sac Tarefa n2 Qtde Tarefas</t>
+  </si>
+  <si>
+    <t>ORDERS_SIGE</t>
+  </si>
+  <si>
+    <t>CB_ORDERS_SIGE</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Tb Mis Orders Sige</t>
+  </si>
+  <si>
+    <t>Tb Mis Orders Sige 1</t>
+  </si>
+  <si>
+    <t>ORDERS_TODAY</t>
+  </si>
+  <si>
+    <t>Vw Fact Orders Today Margem</t>
+  </si>
+  <si>
+    <t>Vw Fact Orders Today Meta</t>
+  </si>
+  <si>
+    <t>Vw Fact Stock</t>
+  </si>
+  <si>
+    <t>ORDERS_TODAY_WEB</t>
+  </si>
+  <si>
+    <t>PRD_OLAP_COMERCIAL</t>
+  </si>
+  <si>
+    <t>Approved Orders</t>
+  </si>
+  <si>
+    <t>cb_approved</t>
+  </si>
+  <si>
+    <t>cb_approved_ageing</t>
+  </si>
+  <si>
+    <t>tb Approved Ageing</t>
+  </si>
+  <si>
+    <t>cb_budget</t>
+  </si>
+  <si>
+    <t>OrcamentoOrders</t>
+  </si>
+  <si>
+    <t>Tb Approved</t>
+  </si>
+  <si>
+    <t>Tb Budget Depto</t>
+  </si>
+  <si>
+    <t>Tb Budget Margin</t>
+  </si>
+  <si>
+    <t>Tb Budget Margin Total</t>
+  </si>
+  <si>
+    <t>Tb Fat</t>
+  </si>
+  <si>
+    <t>Tb Fat Globex</t>
+  </si>
+  <si>
+    <t>Tb Ordersweb</t>
+  </si>
+  <si>
+    <t>cb_capdepto</t>
+  </si>
+  <si>
+    <t>tb_capdepto</t>
+  </si>
+  <si>
+    <t>cb_cp_open</t>
+  </si>
+  <si>
+    <t>Tb Cp Open</t>
+  </si>
+  <si>
+    <t>cb_extend</t>
+  </si>
+  <si>
+    <t>ItemCadastro</t>
+  </si>
+  <si>
+    <t>ItemGarantia</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>cb_fin_stk</t>
+  </si>
+  <si>
+    <t>Tb Finstk</t>
+  </si>
+  <si>
+    <t>cb_gestao</t>
+  </si>
+  <si>
+    <t>tb_fat</t>
+  </si>
+  <si>
+    <t>tb_purchase</t>
+  </si>
+  <si>
+    <t>tb_stock_sige</t>
+  </si>
+  <si>
+    <t>cb_inventory_supply</t>
+  </si>
+  <si>
+    <t>Tb Stock Cmd</t>
+  </si>
+  <si>
+    <t>cb_margin</t>
+  </si>
+  <si>
+    <t>cb_orders</t>
+  </si>
+  <si>
+    <t>Tb Stock</t>
+  </si>
+  <si>
+    <t>cb_orders_today</t>
+  </si>
+  <si>
+    <t>Tb Orderstoday</t>
+  </si>
+  <si>
+    <t>cb_purchase</t>
+  </si>
+  <si>
+    <t>Tb Purchase</t>
+  </si>
+  <si>
+    <t>cb_purchase_full</t>
+  </si>
+  <si>
+    <t>Tb Purchase Full</t>
+  </si>
+  <si>
+    <t>cb_stock_actual</t>
+  </si>
+  <si>
+    <t>cb_stock_sige</t>
+  </si>
+  <si>
+    <t>Tb Stock Sige</t>
+  </si>
+  <si>
+    <t>cb_stock_simple</t>
+  </si>
+  <si>
+    <t>Tb Stock Simple</t>
+  </si>
+  <si>
+    <t>cb_tracking_full</t>
+  </si>
+  <si>
+    <t>Tb Tracking Full</t>
+  </si>
+  <si>
+    <t>cb_tracking_stts</t>
+  </si>
+  <si>
+    <t>Tb Tracking Stts</t>
+  </si>
+  <si>
+    <t>cb_tracking_time</t>
+  </si>
+  <si>
+    <t>Tb Tracking Time</t>
+  </si>
+  <si>
+    <t>PROJETOS</t>
+  </si>
+  <si>
+    <t>Apontamento de Projetos</t>
+  </si>
+  <si>
+    <t>RENTABILIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rentabilidade </t>
+  </si>
+  <si>
+    <t>Vw Custo Logístico</t>
+  </si>
+  <si>
+    <t>Vw Faturamento Servicos Ge</t>
+  </si>
+  <si>
+    <t>Vw Orders Profitable</t>
+  </si>
+  <si>
+    <t>SHARED DIMENSION</t>
+  </si>
+  <si>
+    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -199,7 +764,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -228,13 +793,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -253,7 +818,47 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -267,21 +872,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -295,38 +886,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -334,13 +899,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D37" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D204" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:D204"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DATABASE" dataDxfId="3"/>
-    <tableColumn id="2" name="CUBE" dataDxfId="2"/>
-    <tableColumn id="3" name="MEASURE GROUP" dataDxfId="0"/>
-    <tableColumn id="4" name="PARTITIONS" dataDxfId="1"/>
+    <tableColumn id="1" name="DATABASE" dataDxfId="5"/>
+    <tableColumn id="2" name="CUBE" dataDxfId="4"/>
+    <tableColumn id="3" name="MEASURE GROUP" dataDxfId="3"/>
+    <tableColumn id="4" name="PARTITIONS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,30 +1196,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -662,13 +1227,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2">
@@ -676,13 +1241,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
@@ -690,10 +1255,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1163,6 +1728,2338 @@
       </c>
       <c r="D37" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D196" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D203" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D204" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1172,28 +4069,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Documentação/Planilhas/Partitions.xlsx
+++ b/Documentação/Planilhas/Partitions.xlsx
@@ -771,12 +771,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -791,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -806,37 +812,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -893,19 +885,50 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D204" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D204" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D204"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DATABASE" dataDxfId="5"/>
-    <tableColumn id="2" name="CUBE" dataDxfId="4"/>
-    <tableColumn id="3" name="MEASURE GROUP" dataDxfId="3"/>
-    <tableColumn id="4" name="PARTITIONS" dataDxfId="2"/>
+    <tableColumn id="1" name="DATABASE" dataDxfId="3"/>
+    <tableColumn id="2" name="CUBE" dataDxfId="2"/>
+    <tableColumn id="3" name="MEASURE GROUP" dataDxfId="1"/>
+    <tableColumn id="4" name="PARTITIONS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1199,8 +1222,8 @@
   <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1675,13 +1698,13 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="5">
@@ -1689,13 +1712,13 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="5">
@@ -1703,13 +1726,13 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="2">
@@ -1717,13 +1740,13 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="2">
@@ -1871,13 +1894,13 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="2">
@@ -1885,13 +1908,13 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="2">
@@ -1899,13 +1922,13 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="2">
@@ -1913,13 +1936,13 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="2">
@@ -1927,13 +1950,13 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="5">
@@ -1941,13 +1964,13 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="5">
@@ -1955,13 +1978,13 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2">
@@ -1969,13 +1992,13 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="2">
@@ -1983,13 +2006,13 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2">
@@ -1997,13 +2020,13 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="2">
@@ -2011,13 +2034,13 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="2">
@@ -2025,13 +2048,13 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="2">
@@ -2039,13 +2062,13 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="2">
@@ -2053,13 +2076,13 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="2">
@@ -2067,13 +2090,13 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D62" s="2">
@@ -2081,13 +2104,13 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="5">
@@ -2389,30 +2412,30 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2459,114 +2482,114 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2683,13 +2706,13 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D106" s="5">
@@ -2697,13 +2720,13 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D107" s="2">
@@ -2711,13 +2734,13 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D108" s="2">
@@ -3901,13 +3924,13 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D193" s="5">
@@ -3915,13 +3938,13 @@
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D194" s="5">
@@ -3929,13 +3952,13 @@
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="2">
@@ -3943,13 +3966,13 @@
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="7" t="s">
         <v>241</v>
       </c>
       <c r="D196" s="5">
@@ -3957,13 +3980,13 @@
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="7" t="s">
         <v>242</v>
       </c>
       <c r="D197" s="5">

--- a/Documentação/Planilhas/Partitions.xlsx
+++ b/Documentação/Planilhas/Partitions.xlsx
@@ -771,18 +771,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -797,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -812,23 +806,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -885,50 +893,19 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D204" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D204" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:D204"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DATABASE" dataDxfId="3"/>
-    <tableColumn id="2" name="CUBE" dataDxfId="2"/>
-    <tableColumn id="3" name="MEASURE GROUP" dataDxfId="1"/>
-    <tableColumn id="4" name="PARTITIONS" dataDxfId="0"/>
+    <tableColumn id="1" name="DATABASE" dataDxfId="5"/>
+    <tableColumn id="2" name="CUBE" dataDxfId="4"/>
+    <tableColumn id="3" name="MEASURE GROUP" dataDxfId="3"/>
+    <tableColumn id="4" name="PARTITIONS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1222,8 +1199,8 @@
   <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:D97"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1698,13 +1675,13 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="5">
@@ -1712,13 +1689,13 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="5">
@@ -1726,13 +1703,13 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="2">
@@ -1740,13 +1717,13 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="2">
@@ -1894,13 +1871,13 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="2">
@@ -1908,13 +1885,13 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="2">
@@ -1922,13 +1899,13 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="2">
@@ -1936,13 +1913,13 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="2">
@@ -1950,13 +1927,13 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="5">
@@ -1964,13 +1941,13 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="5">
@@ -1978,13 +1955,13 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="2">
@@ -1992,13 +1969,13 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="2">
@@ -2006,13 +1983,13 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2">
@@ -2020,13 +1997,13 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="2">
@@ -2034,13 +2011,13 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="2">
@@ -2048,13 +2025,13 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="2">
@@ -2062,13 +2039,13 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="2">
@@ -2076,13 +2053,13 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="2">
@@ -2090,13 +2067,13 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D62" s="2">
@@ -2104,13 +2081,13 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="5">
@@ -2412,30 +2389,30 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2482,114 +2459,114 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2706,13 +2683,13 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D106" s="5">
@@ -2720,13 +2697,13 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D107" s="2">
@@ -2734,13 +2711,13 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D108" s="2">
@@ -3924,13 +3901,13 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D193" s="5">
@@ -3938,13 +3915,13 @@
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D194" s="5">
@@ -3952,13 +3929,13 @@
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="2">
@@ -3966,13 +3943,13 @@
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D196" s="5">
@@ -3980,13 +3957,13 @@
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D197" s="5">
